--- a/Turma Intensivo - Manhã Julho 2017/Aula 2/Exerc Estado civil .xlsx
+++ b/Turma Intensivo - Manhã Julho 2017/Aula 2/Exerc Estado civil .xlsx
@@ -9,17 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10470" windowHeight="4515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10470" windowHeight="4515" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Exercicio" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId3"/>
+    <sheet name="Planilha3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <pivotCaches>
+    <pivotCache cacheId="21" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
   <si>
     <t>Nome</t>
   </si>
@@ -94,6 +100,84 @@
   <si>
     <t>Solteiro(a)
 OU Sexo Igual a M</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Quantidade Vendida</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Sorocaba</t>
+  </si>
+  <si>
+    <t>Florianópolis</t>
+  </si>
+  <si>
+    <t>Jundiaí</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Márcio</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Soma de Quantidade Vendida</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Brasil Total</t>
+  </si>
+  <si>
+    <t>MG Total</t>
+  </si>
+  <si>
+    <t>SC Total</t>
+  </si>
+  <si>
+    <t>SP Total</t>
+  </si>
+  <si>
+    <t>Rótulos de Coluna</t>
+  </si>
+  <si>
+    <t>Máx. de Quantidade Vendida</t>
   </si>
 </sst>
 </file>
@@ -163,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -175,6 +259,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -191,6 +286,2322 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Exerc Estado civil .xlsx]Planilha2!Tabela dinâmica3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Leonardo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Planilha2!$A$5:$A$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Belo Horizonte</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Florianópolis</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Jundiaí</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Sorocaba</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>MG</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SC</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Brasil</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$B$5:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-005F-43A4-BC19-B8BF9CCC4C57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Márcio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Planilha2!$A$5:$A$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Belo Horizonte</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Florianópolis</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Jundiaí</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Sorocaba</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>MG</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SC</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Brasil</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$C$5:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-005F-43A4-BC19-B8BF9CCC4C57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nelson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Planilha2!$A$5:$A$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Belo Horizonte</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Florianópolis</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Jundiaí</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Sorocaba</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>MG</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SC</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Brasil</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$D$5:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-005F-43A4-BC19-B8BF9CCC4C57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>William</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Planilha2!$A$5:$A$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Belo Horizonte</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Florianópolis</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Jundiaí</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Sorocaba</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>MG</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SC</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Brasil</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$E$5:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-005F-43A4-BC19-B8BF9CCC4C57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="483231096"/>
+        <c:axId val="483233064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="483231096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483233064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483233064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483231096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Exerc Estado civil .xlsx]Planilha3!Tabela dinâmica4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Máx. de Quantidade Vendida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha3!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Leonardo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Márcio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nelson</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>William</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha3!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08BC-4BF5-A2AA-467AFEDFBA80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de Quantidade Vendida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha3!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Leonardo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Márcio</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nelson</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>William</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha3!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08BC-4BF5-A2AA-467AFEDFBA80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="375220896"/>
+        <c:axId val="375218928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="375220896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375218928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="375218928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="375220896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,6 +2827,460 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>107157</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>21431</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0185C78-4F05-40A1-8276-EF3B4DDBC205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1243012</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E42EF3-FB67-498D-9A8B-C1D157AB576D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Marcio Rosa" refreshedDate="42935.486362962962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="9">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E10" sheet="Planilha1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="País" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="Brasil"/>
+        <m u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Estado" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="SP"/>
+        <s v="SC"/>
+        <s v="MG"/>
+        <m u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Cidade" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Sorocaba"/>
+        <s v="Florianópolis"/>
+        <s v="Jundiaí"/>
+        <s v="Belo Horizonte"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Vendedor" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Nelson"/>
+        <s v="Márcio"/>
+        <s v="William"/>
+        <s v="Leonardo"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Quantidade Vendida" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="50"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="9">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="50"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:F17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="default" r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Quantidade Vendida" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium11" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Máx. de Quantidade Vendida" fld="4" subtotal="max" baseField="3" baseItem="0"/>
+    <dataField name="Soma de Quantidade Vendida" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -741,7 +3606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1048,4 +3913,531 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F17"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <v>36</v>
+      </c>
+      <c r="F7" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>20</v>
+      </c>
+      <c r="F10" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6">
+        <v>50</v>
+      </c>
+      <c r="C14" s="6">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6">
+        <v>32</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="6">
+        <v>65</v>
+      </c>
+      <c r="C15" s="6">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6">
+        <v>32</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6">
+        <v>65</v>
+      </c>
+      <c r="C16" s="6">
+        <v>87</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42</v>
+      </c>
+      <c r="E16" s="6">
+        <v>56</v>
+      </c>
+      <c r="F16" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="6">
+        <v>65</v>
+      </c>
+      <c r="C17" s="6">
+        <v>87</v>
+      </c>
+      <c r="D17" s="6">
+        <v>42</v>
+      </c>
+      <c r="E17" s="6">
+        <v>56</v>
+      </c>
+      <c r="F17" s="6">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="6">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6">
+        <v>50</v>
+      </c>
+      <c r="C6" s="6">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>